--- a/upload.xlsx
+++ b/upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\supervisor_module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\supervisor_module_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1B2C9D-CE4A-4E0A-AA31-81045911E5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C39324E-C32A-4349-A76B-56BF39FBE157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="1215" windowWidth="21600" windowHeight="11295" xr2:uid="{015FB355-4E2D-41A8-B027-1FA3BBBE1324}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{015FB355-4E2D-41A8-B027-1FA3BBBE1324}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>fecha_inicio</t>
-  </si>
-  <si>
-    <t>Calculo 2</t>
-  </si>
-  <si>
-    <t>Martes</t>
   </si>
   <si>
     <t>fecha_fin</t>
@@ -78,8 +72,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -109,8 +117,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,79 +455,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAD9A26-B18F-4720-A080-BCFDDAD853DF}">
-  <dimension ref="A1:J2"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2323233444</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G2">
-        <v>112</v>
-      </c>
-      <c r="H2">
-        <v>1111111111</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45746</v>
-      </c>
-      <c r="J2" s="2">
-        <v>45777</v>
-      </c>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error en el tipo de dato" error="Solo se permiten números en esta celda" sqref="A1:A1048576" xr:uid="{6CDFD58F-119F-4E14-A367-4047670FC350}">
+      <formula1>1</formula1>
+      <formula2>999</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error en el tipo de dato" error="Solo se permiten valores numéricos de 8 o 10 dígitos." sqref="B2:B1048576" xr:uid="{8787AF4D-C132-4059-B339-962D62169D96}">
+      <formula1>AND(ISNUMBER(B2), OR(LEN(B2)=10, LEN(B2)=8))</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error en el tipo de dato" error="Solo se permiten valores numéricos" sqref="G2:G1048576" xr:uid="{EC96E0DD-6E26-4EE6-BF34-29B7A6A2142B}">
+      <formula1>1</formula1>
+      <formula2>999</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error en el tipo de dato" error="Solo se permiten valores numéricos de 8 o 10 dígitos." sqref="H2:H1048576" xr:uid="{50B48131-7E6C-4FBC-8B49-EB7DCD565AF7}">
+      <formula1>AND(ISNUMBER(H2), OR(LEN(H2)=10,LEN(H2)=8))</formula1>
+    </dataValidation>
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error en el tipo de dato" error="Solo se permiten hora en esta celda" sqref="E2:E1048576" xr:uid="{DC2A88B5-67F4-4D85-9292-8B7EAD554872}">
+      <formula1>0.25</formula1>
+      <formula2>0.958333333333333</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error en el tipo de dato" error="Recuerde que la hora fin debe ser mayor a la hora inicio._x000a__x000a_Revisa el tipo de formato debe ser de hora." sqref="F2:F1048576" xr:uid="{141700C2-5927-4016-999D-E8CD0D4F4192}">
+      <formula1>F2&gt;E2</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error en el tipo de dato" error="La fecha debe ser igual o mayor que el dia de hoy" sqref="I2:I1048576" xr:uid="{A766C19C-3AB6-4F7C-992B-D82B67B0D0FA}">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error en el tipo de dato" error="La fecha fin debe ser mayor a la fecha de inicio" sqref="J2:J1048576" xr:uid="{13CF93EA-982A-4F74-97AB-79334D08DE0A}">
+      <formula1>J2&gt;I2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error en el tipo de dato" error="Solo es permitido dias:  Lunes, Martes, Miércoles, Jueves, Viernes, Sábado" sqref="D2:D1048576" xr:uid="{2C75732C-E6A7-4A59-8876-92A0C071A468}">
+      <formula1>"Lunes,Martes,Miércoles,Jueves,Viernes,Sábado"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>